--- a/Test Data/TC_57_Verify_IOB_In_Accessories_Gallery.xlsx
+++ b/Test Data/TC_57_Verify_IOB_In_Accessories_Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC723EFB-5648-44DD-B50B-E8851567E572}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3423B-DA5B-483B-8606-CBDC40D6570C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Color Codes</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>VerifyIOBInAccessoriesGallery</t>
+  </si>
+  <si>
+    <t>Node</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>15</v>
@@ -616,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>15</v>
@@ -636,7 +639,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>15</v>
@@ -656,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
